--- a/pandas-media-escolar/turma-B.xlsx
+++ b/pandas-media-escolar/turma-B.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\WINDOWS\Documents\saymon-dev\algoritmos\pandas-media-escolar\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\WINDOWS\Documents\saymon-dev\repositorio-github\analise-de-dados\pandas-media-escolar\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B547846E-E407-44C1-B7B4-CEAD8F1822A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15134DD7-89A2-40D7-BB4E-DA5FF9AD833C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -67,9 +67,6 @@
     <t>Camila Oliveira</t>
   </si>
   <si>
-    <t>Sofia Rodrigues</t>
-  </si>
-  <si>
     <t>Isabela Lima</t>
   </si>
   <si>
@@ -128,6 +125,9 @@
   </si>
   <si>
     <t>Lucas Mendes</t>
+  </si>
+  <si>
+    <t>Sofia Neto</t>
   </si>
 </sst>
 </file>
@@ -498,7 +498,7 @@
   <dimension ref="A1:F31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -708,7 +708,7 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="B11">
         <v>2.5</v>
@@ -728,7 +728,7 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B12">
         <v>5.5</v>
@@ -748,7 +748,7 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B13">
         <v>9.5</v>
@@ -768,7 +768,7 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B14">
         <v>4.5</v>
@@ -788,7 +788,7 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B15">
         <v>10</v>
@@ -808,7 +808,7 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B16">
         <v>1.5</v>
@@ -828,7 +828,7 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B17">
         <v>4</v>
@@ -848,7 +848,7 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B18">
         <v>3.5</v>
@@ -868,7 +868,7 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B19">
         <v>9.5</v>
@@ -888,7 +888,7 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B20">
         <v>6.5</v>
@@ -908,7 +908,7 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B21">
         <v>5</v>
@@ -928,7 +928,7 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B22">
         <v>7</v>
@@ -948,7 +948,7 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B23">
         <v>3.5</v>
@@ -968,7 +968,7 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B24">
         <v>0</v>
@@ -988,7 +988,7 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B25">
         <v>0.5</v>
@@ -1008,7 +1008,7 @@
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B26">
         <v>6</v>
@@ -1028,7 +1028,7 @@
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B27">
         <v>9.5</v>
@@ -1048,7 +1048,7 @@
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B28">
         <v>0</v>
@@ -1068,7 +1068,7 @@
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B29">
         <v>3.5</v>
@@ -1088,7 +1088,7 @@
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B30">
         <v>6</v>
@@ -1108,7 +1108,7 @@
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B31">
         <v>0.5</v>
